--- a/relevamiento.xlsx
+++ b/relevamiento.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Calle</t>
   </si>
@@ -47,9 +48,6 @@
     <t>A-C</t>
   </si>
   <si>
-    <t>A,B,D-H</t>
-  </si>
-  <si>
     <t>Otro</t>
   </si>
   <si>
@@ -78,6 +76,24 @@
   </si>
   <si>
     <t>Encargado</t>
+  </si>
+  <si>
+    <t>Flia</t>
+  </si>
+  <si>
+    <t>D-H</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Clínica</t>
+  </si>
+  <si>
+    <t>López</t>
   </si>
 </sst>
 </file>
@@ -402,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -415,7 +431,7 @@
     <col min="4" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -429,61 +445,80 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2">
         <v>23</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D6" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D8" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>30</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="2">
-        <v>30</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="2" t="s">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -492,4 +527,16 @@
     <ignoredError sqref="B5" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>